--- a/resources/experiment 1/predictions/multiple/LinearRegression/incidence/Neuropatías (INC).xlsx
+++ b/resources/experiment 1/predictions/multiple/LinearRegression/incidence/Neuropatías (INC).xlsx
@@ -487,7 +487,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9.892933768781489</v>
+        <v>9.892933768781496</v>
       </c>
       <c r="B3" t="n">
         <v>-0.7505647322637614</v>
@@ -496,13 +496,13 @@
         <v>21.75561769301999</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.9878293984259443</v>
+        <v>-0.9878293984259514</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.660420160029011</v>
+        <v>-2.660420160029014</v>
       </c>
       <c r="F3" t="n">
-        <v>1.625356627204102</v>
+        <v>1.625356627204098</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +516,13 @@
         <v>32.22424716285698</v>
       </c>
       <c r="D4" t="n">
-        <v>3.192666118988626</v>
+        <v>3.192666118988619</v>
       </c>
       <c r="E4" t="n">
         <v>0.7751742038769134</v>
       </c>
       <c r="F4" t="n">
-        <v>6.651406545235226</v>
+        <v>6.651406545235222</v>
       </c>
     </row>
     <row r="5">
@@ -536,10 +536,10 @@
         <v>23.81657387118912</v>
       </c>
       <c r="D5" t="n">
-        <v>2.297066339775725</v>
+        <v>2.297066339775718</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.3528074042908109</v>
+        <v>-0.3528074042908145</v>
       </c>
       <c r="F5" t="n">
         <v>5.829091448111676</v>
@@ -559,10 +559,10 @@
         <v>12.23133624177822</v>
       </c>
       <c r="E6" t="n">
-        <v>7.419317796697224</v>
+        <v>7.419317796697223</v>
       </c>
       <c r="F6" t="n">
-        <v>17.84994294906403</v>
+        <v>17.84994294906404</v>
       </c>
     </row>
     <row r="7">
@@ -582,7 +582,7 @@
         <v>11.39286399115408</v>
       </c>
       <c r="F7" t="n">
-        <v>23.38770455790346</v>
+        <v>23.38770455790345</v>
       </c>
     </row>
     <row r="8">
@@ -590,7 +590,7 @@
         <v>98.62069590984999</v>
       </c>
       <c r="B8" t="n">
-        <v>86.32022533445677</v>
+        <v>86.32022533445675</v>
       </c>
       <c r="C8" t="n">
         <v>106.2426382537675</v>
@@ -602,12 +602,12 @@
         <v>23.22282535482994</v>
       </c>
       <c r="F8" t="n">
-        <v>40.99068958288314</v>
+        <v>40.99068958288313</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>34.06990775757724</v>
+        <v>34.06990775757725</v>
       </c>
       <c r="B9" t="n">
         <v>22.93545089714457</v>
@@ -619,7 +619,7 @@
         <v>10.54277570472573</v>
       </c>
       <c r="E9" t="n">
-        <v>6.096931482366182</v>
+        <v>6.096931482366181</v>
       </c>
       <c r="F9" t="n">
         <v>15.65933170823446</v>
@@ -630,7 +630,7 @@
         <v>99.5616171210763</v>
       </c>
       <c r="B10" t="n">
-        <v>86.66586935430298</v>
+        <v>86.66586935430297</v>
       </c>
       <c r="C10" t="n">
         <v>107.3896402589655</v>
@@ -642,12 +642,12 @@
         <v>24.12376182800612</v>
       </c>
       <c r="F10" t="n">
-        <v>42.95944124777325</v>
+        <v>42.95944124777324</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>68.28620044629285</v>
+        <v>68.28620044629287</v>
       </c>
       <c r="B11" t="n">
         <v>55.95931575881611</v>
@@ -662,12 +662,12 @@
         <v>16.71462126964335</v>
       </c>
       <c r="F11" t="n">
-        <v>32.3956297209027</v>
+        <v>32.39562972090269</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>48.14850685632653</v>
+        <v>48.14850685632654</v>
       </c>
       <c r="B12" t="n">
         <v>36.64342769096669</v>
@@ -696,7 +696,7 @@
         <v>99.93476244563992</v>
       </c>
       <c r="D13" t="n">
-        <v>34.38430402036286</v>
+        <v>34.38430402036287</v>
       </c>
       <c r="E13" t="n">
         <v>24.31816653416944</v>
@@ -727,19 +727,19 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13.89284337419318</v>
+        <v>13.89284337419319</v>
       </c>
       <c r="B15" t="n">
         <v>3.192769760413142</v>
       </c>
       <c r="C15" t="n">
-        <v>25.87753004935826</v>
+        <v>25.87753004935825</v>
       </c>
       <c r="D15" t="n">
-        <v>5.581962077977392</v>
+        <v>5.581962077977389</v>
       </c>
       <c r="E15" t="n">
-        <v>1.954805351447389</v>
+        <v>1.954805351447384</v>
       </c>
       <c r="F15" t="n">
         <v>10.03282626901925</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>35.06988515893017</v>
+        <v>35.06988515893018</v>
       </c>
       <c r="B16" t="n">
         <v>23.92128452031379</v>
@@ -759,7 +759,7 @@
         <v>12.18522357382657</v>
       </c>
       <c r="E16" t="n">
-        <v>7.250737860235282</v>
+        <v>7.25073786023528</v>
       </c>
       <c r="F16" t="n">
         <v>17.76119911868825</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>48.22724844316202</v>
+        <v>48.22724844316201</v>
       </c>
       <c r="B17" t="n">
         <v>37.49701382873069</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>21.07002764701636</v>
+        <v>21.07002764701635</v>
       </c>
       <c r="B18" t="n">
         <v>11.06689386425569</v>
@@ -796,7 +796,7 @@
         <v>32.1465645521147</v>
       </c>
       <c r="D18" t="n">
-        <v>3.238778786940276</v>
+        <v>3.238778786940269</v>
       </c>
       <c r="E18" t="n">
         <v>0.9437541403388554</v>
@@ -816,7 +816,7 @@
         <v>79.79493376282369</v>
       </c>
       <c r="D19" t="n">
-        <v>27.80409885848951</v>
+        <v>27.80409885848952</v>
       </c>
       <c r="E19" t="n">
         <v>19.10652399361252</v>
@@ -839,10 +839,10 @@
         <v>15.51623197997989</v>
       </c>
       <c r="E20" t="n">
-        <v>9.726930552435423</v>
+        <v>9.726930552435421</v>
       </c>
       <c r="F20" t="n">
-        <v>22.0536777699716</v>
+        <v>22.05367776997161</v>
       </c>
     </row>
     <row r="21">
@@ -853,16 +853,16 @@
         <v>14.15664221916858</v>
       </c>
       <c r="C21" t="n">
-        <v>36.42384212993752</v>
+        <v>36.42384212993751</v>
       </c>
       <c r="D21" t="n">
-        <v>9.716344927440309</v>
+        <v>9.716344927440307</v>
       </c>
       <c r="E21" t="n">
-        <v>5.221819778891371</v>
+        <v>5.221819778891367</v>
       </c>
       <c r="F21" t="n">
-        <v>14.97013235667458</v>
+        <v>14.97013235667459</v>
       </c>
     </row>
     <row r="22">
@@ -882,7 +882,7 @@
         <v>25.19327823764425</v>
       </c>
       <c r="F22" t="n">
-        <v>45.01693674303915</v>
+        <v>45.01693674303914</v>
       </c>
     </row>
     <row r="23">
@@ -893,16 +893,16 @@
         <v>5.032189521346375</v>
       </c>
       <c r="C23" t="n">
-        <v>26.75264291695828</v>
+        <v>26.75264291695827</v>
       </c>
       <c r="D23" t="n">
-        <v>7.31663528298153</v>
+        <v>7.316635282981526</v>
       </c>
       <c r="E23" t="n">
-        <v>3.445771602240372</v>
+        <v>3.445771602240368</v>
       </c>
       <c r="F23" t="n">
-        <v>12.3121813402246</v>
+        <v>12.31218134022461</v>
       </c>
     </row>
     <row r="24">
@@ -919,7 +919,7 @@
         <v>12.16216723985074</v>
       </c>
       <c r="E24" t="n">
-        <v>7.166447892004311</v>
+        <v>7.166447892004309</v>
       </c>
       <c r="F24" t="n">
         <v>17.71682720350035</v>
@@ -936,13 +936,13 @@
         <v>43.87871994326308</v>
       </c>
       <c r="D25" t="n">
-        <v>8.923384169600727</v>
+        <v>8.923384169600721</v>
       </c>
       <c r="E25" t="n">
         <v>5.027415072728052</v>
       </c>
       <c r="F25" t="n">
-        <v>13.60183621296857</v>
+        <v>13.60183621296856</v>
       </c>
     </row>
     <row r="26">
@@ -956,13 +956,13 @@
         <v>36.26847690845297</v>
       </c>
       <c r="D26" t="n">
-        <v>9.808570263343611</v>
+        <v>9.80857026334361</v>
       </c>
       <c r="E26" t="n">
-        <v>5.558979651815255</v>
+        <v>5.558979651815253</v>
       </c>
       <c r="F26" t="n">
-        <v>15.14762001742615</v>
+        <v>15.14762001742616</v>
       </c>
     </row>
     <row r="27">
@@ -976,13 +976,13 @@
         <v>101.9180360130668</v>
       </c>
       <c r="D27" t="n">
-        <v>37.71531242651618</v>
+        <v>37.71531242651619</v>
       </c>
       <c r="E27" t="n">
         <v>26.79435922636958</v>
       </c>
       <c r="F27" t="n">
-        <v>48.62021604276263</v>
+        <v>48.62021604276264</v>
       </c>
     </row>
     <row r="28">
@@ -999,7 +999,7 @@
         <v>18.74237240172409</v>
       </c>
       <c r="E28" t="n">
-        <v>12.37809043256124</v>
+        <v>12.37809043256123</v>
       </c>
       <c r="F28" t="n">
         <v>25.40082813798146</v>
@@ -1013,16 +1013,16 @@
         <v>6.018023144515602</v>
       </c>
       <c r="C29" t="n">
-        <v>27.78312100604285</v>
+        <v>27.78312100604284</v>
       </c>
       <c r="D29" t="n">
-        <v>8.959083152082364</v>
+        <v>8.959083152082361</v>
       </c>
       <c r="E29" t="n">
-        <v>4.599577980109473</v>
+        <v>4.599577980109469</v>
       </c>
       <c r="F29" t="n">
-        <v>14.41404875067839</v>
+        <v>14.4140487506784</v>
       </c>
     </row>
     <row r="30">
@@ -1059,7 +1059,7 @@
         <v>27.08030710257741</v>
       </c>
       <c r="E31" t="n">
-        <v>19.16498919214211</v>
+        <v>19.16498919214212</v>
       </c>
       <c r="F31" t="n">
         <v>35.40855605885582</v>
@@ -1076,13 +1076,13 @@
         <v>96.88216948375735</v>
       </c>
       <c r="D32" t="n">
-        <v>29.43390407908453</v>
+        <v>29.43390407908454</v>
       </c>
       <c r="E32" t="n">
         <v>20.77245743233117</v>
       </c>
       <c r="F32" t="n">
-        <v>37.97776324493002</v>
+        <v>37.97776324493001</v>
       </c>
     </row>
     <row r="33">
@@ -1119,10 +1119,10 @@
         <v>25.38133288005491</v>
       </c>
       <c r="E34" t="n">
-        <v>17.24618584873055</v>
+        <v>17.24618584873054</v>
       </c>
       <c r="F34" t="n">
-        <v>33.94141352536028</v>
+        <v>33.94141352536029</v>
       </c>
     </row>
     <row r="35">
@@ -1139,10 +1139,10 @@
         <v>13.8276714429274</v>
       </c>
       <c r="E35" t="n">
-        <v>8.404544238104382</v>
+        <v>8.40454423810438</v>
       </c>
       <c r="F35" t="n">
-        <v>19.86306652914203</v>
+        <v>19.86306652914204</v>
       </c>
     </row>
     <row r="36">
@@ -1156,13 +1156,13 @@
         <v>65.08786802053501</v>
       </c>
       <c r="D36" t="n">
-        <v>17.12298086659909</v>
+        <v>17.12298086659908</v>
       </c>
       <c r="E36" t="n">
         <v>11.30857402292311</v>
       </c>
       <c r="F36" t="n">
-        <v>23.34333264271557</v>
+        <v>23.34333264271556</v>
       </c>
     </row>
     <row r="37">
@@ -1176,13 +1176,13 @@
         <v>37.37663760827981</v>
       </c>
       <c r="D37" t="n">
-        <v>11.4049054644928</v>
+        <v>11.40490546449279</v>
       </c>
       <c r="E37" t="n">
-        <v>6.544206093222412</v>
+        <v>6.544206093222409</v>
       </c>
       <c r="F37" t="n">
-        <v>17.16074359750415</v>
+        <v>17.16074359750417</v>
       </c>
     </row>
     <row r="38">
@@ -1207,7 +1207,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>49.16816965438833</v>
+        <v>49.16816965438834</v>
       </c>
       <c r="B39" t="n">
         <v>37.84265784857691</v>
@@ -1219,7 +1219,7 @@
         <v>21.24695003059199</v>
       </c>
       <c r="E39" t="n">
-        <v>13.97917142128657</v>
+        <v>13.97917142128656</v>
       </c>
       <c r="F39" t="n">
         <v>29.00410743770495</v>
@@ -1236,10 +1236,10 @@
         <v>34.28520334102611</v>
       </c>
       <c r="D40" t="n">
-        <v>6.477561857190294</v>
+        <v>6.477561857190288</v>
       </c>
       <c r="E40" t="n">
-        <v>3.082786959615113</v>
+        <v>3.082786959615111</v>
       </c>
       <c r="F40" t="n">
         <v>10.8551413661428</v>
@@ -1262,7 +1262,7 @@
         <v>10.40763754974692</v>
       </c>
       <c r="F41" t="n">
-        <v>21.37458097782546</v>
+        <v>21.37458097782545</v>
       </c>
     </row>
     <row r="42">
@@ -1322,7 +1322,7 @@
         <v>13.33749210426702</v>
       </c>
       <c r="F44" t="n">
-        <v>26.13439940472923</v>
+        <v>26.13439940472922</v>
       </c>
     </row>
     <row r="45">
@@ -1342,12 +1342,12 @@
         <v>20.5974902444055</v>
       </c>
       <c r="F45" t="n">
-        <v>38.92309152820351</v>
+        <v>38.92309152820353</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>77.46333952182188</v>
+        <v>77.46333952182187</v>
       </c>
       <c r="B46" t="n">
         <v>65.80510710899711</v>
@@ -1379,10 +1379,10 @@
         <v>36.9223516686766</v>
       </c>
       <c r="E47" t="n">
-        <v>26.59995452020626</v>
+        <v>26.59995452020627</v>
       </c>
       <c r="F47" t="n">
-        <v>47.25191989905661</v>
+        <v>47.2519198990566</v>
       </c>
     </row>
     <row r="48">
@@ -1399,15 +1399,15 @@
         <v>19.62755849546698</v>
       </c>
       <c r="E48" t="n">
-        <v>12.90965501164844</v>
+        <v>12.90965501164843</v>
       </c>
       <c r="F48" t="n">
-        <v>26.94661194243905</v>
+        <v>26.94661194243906</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>21.97157806482493</v>
+        <v>21.97157806482494</v>
       </c>
       <c r="B49" t="n">
         <v>10.9857448152199</v>
@@ -1416,10 +1416,10 @@
         <v>33.37124916805495</v>
       </c>
       <c r="D49" t="n">
-        <v>4.765944986161982</v>
+        <v>4.765944986161976</v>
       </c>
       <c r="E49" t="n">
-        <v>1.676110677053101</v>
+        <v>1.676110677053098</v>
       </c>
       <c r="F49" t="n">
         <v>8.620158210125332</v>
@@ -1433,21 +1433,21 @@
         <v>15.14247584233781</v>
       </c>
       <c r="C50" t="n">
-        <v>37.45432021902209</v>
+        <v>37.45432021902208</v>
       </c>
       <c r="D50" t="n">
         <v>11.35879279654114</v>
       </c>
       <c r="E50" t="n">
-        <v>6.375626156760471</v>
+        <v>6.375626156760467</v>
       </c>
       <c r="F50" t="n">
-        <v>17.07199976712837</v>
+        <v>17.07199976712838</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>9.932304562199228</v>
+        <v>9.932304562199235</v>
       </c>
       <c r="B51" t="n">
         <v>-0.3237716633817556</v>
@@ -1456,13 +1456,13 @@
         <v>21.67793508227771</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.9417167304742939</v>
+        <v>-0.941716730474301</v>
       </c>
       <c r="E51" t="n">
         <v>-2.491840223567069</v>
       </c>
       <c r="F51" t="n">
-        <v>1.714100457579885</v>
+        <v>1.714100457579882</v>
       </c>
     </row>
     <row r="52">
@@ -1482,7 +1482,7 @@
         <v>16.52021656348003</v>
       </c>
       <c r="F52" t="n">
-        <v>31.02733357719668</v>
+        <v>31.02733357719666</v>
       </c>
     </row>
     <row r="53">
@@ -1502,12 +1502,12 @@
         <v>14.23204132597948</v>
       </c>
       <c r="F53" t="n">
-        <v>29.13722318326862</v>
+        <v>29.13722318326863</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>13.93221416761092</v>
+        <v>13.93221416761093</v>
       </c>
       <c r="B54" t="n">
         <v>3.619562829295148</v>
@@ -1516,18 +1516,18 @@
         <v>25.79984743861598</v>
       </c>
       <c r="D54" t="n">
-        <v>5.628074745929045</v>
+        <v>5.628074745929039</v>
       </c>
       <c r="E54" t="n">
-        <v>2.123385287909331</v>
+        <v>2.123385287909327</v>
       </c>
       <c r="F54" t="n">
-        <v>10.12157009939503</v>
+        <v>10.12157009939504</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>25.01088106230144</v>
+        <v>25.01088106230145</v>
       </c>
       <c r="B55" t="n">
         <v>14.37003875360958</v>
@@ -1536,10 +1536,10 @@
         <v>36.38500082456638</v>
       </c>
       <c r="D55" t="n">
-        <v>9.739401261416134</v>
+        <v>9.739401261416132</v>
       </c>
       <c r="E55" t="n">
-        <v>5.306109747122342</v>
+        <v>5.306109747122338</v>
       </c>
       <c r="F55" t="n">
         <v>15.01450427186248</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>78.36488993963044</v>
+        <v>78.36488993963046</v>
       </c>
       <c r="B56" t="n">
         <v>65.72395805996132</v>
@@ -1562,7 +1562,7 @@
         <v>18.74353935098726</v>
       </c>
       <c r="F56" t="n">
-        <v>35.18669648291636</v>
+        <v>35.18669648291635</v>
       </c>
     </row>
     <row r="57">
@@ -1576,13 +1576,13 @@
         <v>96.84332817838622</v>
       </c>
       <c r="D57" t="n">
-        <v>29.45696041306036</v>
+        <v>29.45696041306037</v>
       </c>
       <c r="E57" t="n">
         <v>20.85674740056214</v>
       </c>
       <c r="F57" t="n">
-        <v>38.02213516011791</v>
+        <v>38.0221351601179</v>
       </c>
     </row>
     <row r="58">
@@ -1599,10 +1599,10 @@
         <v>11.42796179846862</v>
       </c>
       <c r="E58" t="n">
-        <v>6.628496061453383</v>
+        <v>6.628496061453381</v>
       </c>
       <c r="F58" t="n">
-        <v>17.20511551269205</v>
+        <v>17.20511551269206</v>
       </c>
     </row>
     <row r="59">
@@ -1627,19 +1627,19 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>14.91250617225498</v>
+        <v>14.91250617225499</v>
       </c>
       <c r="B60" t="n">
         <v>4.391999918023366</v>
       </c>
       <c r="C60" t="n">
-        <v>26.86916683307169</v>
+        <v>26.86916683307168</v>
       </c>
       <c r="D60" t="n">
-        <v>7.247466281054052</v>
+        <v>7.247466281054049</v>
       </c>
       <c r="E60" t="n">
-        <v>3.192901697547461</v>
+        <v>3.192901697547455</v>
       </c>
       <c r="F60" t="n">
         <v>12.17906559466093</v>
@@ -1647,13 +1647,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>80.40421553575403</v>
+        <v>80.40421553575405</v>
       </c>
       <c r="B61" t="n">
         <v>68.12241837518178</v>
       </c>
       <c r="C61" t="n">
-        <v>89.31076775431839</v>
+        <v>89.31076775431838</v>
       </c>
       <c r="D61" t="n">
         <v>30.2960338388516</v>
@@ -1676,7 +1676,7 @@
         <v>77.73397758465455</v>
       </c>
       <c r="D62" t="n">
-        <v>24.51920312028784</v>
+        <v>24.51920312028785</v>
       </c>
       <c r="E62" t="n">
         <v>16.79891123787432</v>
@@ -1693,7 +1693,7 @@
         <v>70.09408562152024</v>
       </c>
       <c r="C63" t="n">
-        <v>91.37172393248753</v>
+        <v>91.37172393248751</v>
       </c>
       <c r="D63" t="n">
         <v>33.58092957705327</v>
@@ -1713,16 +1713,16 @@
         <v>4.605396452464369</v>
       </c>
       <c r="C64" t="n">
-        <v>26.83032552770055</v>
+        <v>26.83032552770054</v>
       </c>
       <c r="D64" t="n">
-        <v>7.270522615029877</v>
+        <v>7.270522615029874</v>
       </c>
       <c r="E64" t="n">
-        <v>3.27719166577843</v>
+        <v>3.277191665778426</v>
       </c>
       <c r="F64" t="n">
-        <v>12.22343750984882</v>
+        <v>12.22343750984883</v>
       </c>
     </row>
     <row r="65">
@@ -1739,10 +1739,10 @@
         <v>27.83756887793535</v>
       </c>
       <c r="E65" t="n">
-        <v>19.78723099092401</v>
+        <v>19.78723099092402</v>
       </c>
       <c r="F65" t="n">
-        <v>35.96463966485202</v>
+        <v>35.964639664852</v>
       </c>
     </row>
     <row r="66">
@@ -1762,7 +1762,7 @@
         <v>15.9237995343995</v>
       </c>
       <c r="F66" t="n">
-        <v>31.75080228453071</v>
+        <v>31.75080228453072</v>
       </c>
     </row>
     <row r="67">
@@ -1782,7 +1782,7 @@
         <v>15.02286306122332</v>
       </c>
       <c r="F67" t="n">
-        <v>29.7820506196406</v>
+        <v>29.78205061964061</v>
       </c>
     </row>
     <row r="68">
@@ -1796,10 +1796,10 @@
         <v>35.43220534622409</v>
       </c>
       <c r="D68" t="n">
-        <v>8.050840724363649</v>
+        <v>8.050840724363647</v>
       </c>
       <c r="E68" t="n">
-        <v>3.983723432791301</v>
+        <v>3.983723432791297</v>
       </c>
       <c r="F68" t="n">
         <v>12.82389303103291</v>
@@ -1816,13 +1816,13 @@
         <v>109.4894377425057</v>
       </c>
       <c r="D69" t="n">
-        <v>36.85318266674912</v>
+        <v>36.85318266674913</v>
       </c>
       <c r="E69" t="n">
         <v>26.34708461551335</v>
       </c>
       <c r="F69" t="n">
-        <v>47.11880415349293</v>
+        <v>47.11880415349292</v>
       </c>
     </row>
     <row r="70">
@@ -1836,10 +1836,10 @@
         <v>34.24636203565498</v>
       </c>
       <c r="D70" t="n">
-        <v>6.500618191166119</v>
+        <v>6.500618191166115</v>
       </c>
       <c r="E70" t="n">
-        <v>3.167076927846084</v>
+        <v>3.167076927846082</v>
       </c>
       <c r="F70" t="n">
         <v>10.89951328133069</v>
@@ -1853,16 +1853,16 @@
         <v>31.92765610956156</v>
       </c>
       <c r="C71" t="n">
-        <v>53.43339524012891</v>
+        <v>53.43339524012892</v>
       </c>
       <c r="D71" t="n">
         <v>11.39226281598698</v>
       </c>
       <c r="E71" t="n">
-        <v>7.056333154071966</v>
+        <v>7.056333154071965</v>
       </c>
       <c r="F71" t="n">
-        <v>16.39290297498223</v>
+        <v>16.39290297498222</v>
       </c>
     </row>
     <row r="72">
@@ -1876,7 +1876,7 @@
         <v>55.53319272366918</v>
       </c>
       <c r="D72" t="n">
-        <v>14.65410222021283</v>
+        <v>14.65410222021282</v>
       </c>
       <c r="E72" t="n">
         <v>9.279655941579193</v>
